--- a/biology/Histoire de la zoologie et de la botanique/Barbara_Lynette_Rye/Barbara_Lynette_Rye.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Barbara_Lynette_Rye/Barbara_Lynette_Rye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbara Lynette Rye est une botaniste australienne née en 1952 à Perth.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Perth, en Australie-Occidentale[1], elle a passé son enfance à étudier la flore et la faune locales de la région du sud-ouest de l'Australie, un hotspot de biodiversité, et a ensuite entrepris des études à l'université d'Australie-Occidentale. Barbara Rye s'est lancée dans les domaines de la zoologie et de la botanique, s'intéressant particulièrement à la génétique et à la biologie évolutive. Sa première description d'une nouvelle espèce concerne un Darwinia, un genre de la famille des Myrtaceae qu'elle a étudié pour sa thèse de doctorat, séparant Darwinia capitellata d'un groupe plus largement distribué[2].
-Barbara Rye a été associée au Western Australian Herbarium (en), où son travail de taxonomiste a été à l'origine de nouvelles descriptions de plantes[3].
-Barbara Rye est co-autrice ou contributrice de plusieurs ouvrages de référence de botanique australienne, Flora of the Perth Region, Flora of the Kimberley, et elle a publié des articles sur les Thymelaeaceae pour la série Flora of Australia[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Perth, en Australie-Occidentale, elle a passé son enfance à étudier la flore et la faune locales de la région du sud-ouest de l'Australie, un hotspot de biodiversité, et a ensuite entrepris des études à l'université d'Australie-Occidentale. Barbara Rye s'est lancée dans les domaines de la zoologie et de la botanique, s'intéressant particulièrement à la génétique et à la biologie évolutive. Sa première description d'une nouvelle espèce concerne un Darwinia, un genre de la famille des Myrtaceae qu'elle a étudié pour sa thèse de doctorat, séparant Darwinia capitellata d'un groupe plus largement distribué.
+Barbara Rye a été associée au Western Australian Herbarium (en), où son travail de taxonomiste a été à l'origine de nouvelles descriptions de plantes.
+Barbara Rye est co-autrice ou contributrice de plusieurs ouvrages de référence de botanique australienne, Flora of the Perth Region, Flora of the Kimberley, et elle a publié des articles sur les Thymelaeaceae pour la série Flora of Australia.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Kellermann, Rye et Thiele, « Polianthion, a new genus of Rhamnaceae (Pomaderreae) from Western Australia and Queensland », Australian Systematic Botany, vol. 19, no  2, 2006, p. 169  (ISSN 1030-1887), DOI 10.1071/SB05027.
 Kellermann, Rye et Thiele, « Blackallia, Serichonus and Papistylus: three closely related genera of Rhamnaceae (Pomaderreae) from south-western Australia », Nuytsia, vol. 16, 2007, p. 299–316
